--- a/Data/VanguardConfig - Copy.xlsx
+++ b/Data/VanguardConfig - Copy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\603213\Documents\UiPath\Vangaurd\RoboticEnterpriseFramework\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15F1A249-FCF6-4D16-A12C-17443E0487BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FCDD6E9-3C9D-4F2D-BB69-2167E228AB25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -935,8 +935,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1007"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -3788,7 +3788,7 @@
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1">
       <c r="B12" t="str">
-        <f t="shared" ref="B5:B15" si="0">"VG_"&amp;A12</f>
+        <f t="shared" ref="B12:B15" si="0">"VG_"&amp;A12</f>
         <v>VG_</v>
       </c>
     </row>

--- a/Data/VanguardConfig - Copy.xlsx
+++ b/Data/VanguardConfig - Copy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\603213\Documents\UiPath\Vangaurd\RoboticEnterpriseFramework\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FCDD6E9-3C9D-4F2D-BB69-2167E228AB25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7CEFC8D-BE1E-4512-97F4-8C1BD46410E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -935,8 +935,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1007"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>

--- a/Data/VanguardConfig - Copy.xlsx
+++ b/Data/VanguardConfig - Copy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\603213\Documents\UiPath\Vangaurd\RoboticEnterpriseFramework\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7CEFC8D-BE1E-4512-97F4-8C1BD46410E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{128D1F5E-4A80-422B-80B9-16253E021165}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -935,8 +935,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1007"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A66" sqref="A66:B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>

--- a/Data/VanguardConfig - Copy.xlsx
+++ b/Data/VanguardConfig - Copy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\603213\Documents\UiPath\Vangaurd\RoboticEnterpriseFramework\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{128D1F5E-4A80-422B-80B9-16253E021165}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62AA72F1-1687-459B-BF2B-0CF2FE4E9D41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
